--- a/data/tipo_vacina.xlsx
+++ b/data/tipo_vacina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IFS 2023\Projetos R\COVID\Covid-19 NOVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ATUAL 2024\Projetos R\COVID\Covid-19 NOVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D8E344-712B-4740-A9C2-C63D6933DFC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB43D396-13CB-4869-A476-5539BE4592F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09B3E7D9-C8EB-46B9-AF5E-44929C410835}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>vacina</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>1º Reforço</t>
+  </si>
+  <si>
+    <t>Única</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5696F2A7-A961-4BDE-B94B-1ABA194A92A0}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,15 +519,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -532,7 +535,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -540,7 +543,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -548,7 +551,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -556,15 +559,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -572,7 +575,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -580,21 +583,30 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>